--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters POULTRY.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters POULTRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CD0848-ADFB-D84B-97D2-8BE2EEFB9925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FD179C-B8A1-A148-B67A-258EAA6FE026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="27300" windowHeight="16140" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="10200" windowHeight="16140" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="157">
   <si>
     <t># Initial population</t>
   </si>
@@ -478,18 +478,6 @@
     <t># offtake rate female</t>
   </si>
   <si>
-    <t>0.574/12</t>
-  </si>
-  <si>
-    <t>rpert(10000, 12, 25, 18.5)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 13, 22, 17.5)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 15, 22, 18.5)</t>
-  </si>
-  <si>
     <t># Neonatal female (0-8weeks)</t>
   </si>
   <si>
@@ -569,6 +557,24 @@
   </si>
   <si>
     <t>rpert(10000, 2.97, 5, 4)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.15, 0.22, 0.185)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.13, 0.22, 0.175)</t>
+  </si>
+  <si>
+    <t>0.574/2</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.12/4, 0.25/4, 0.185/4)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.987, 1.3, 1.15)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.59, 0.8, 0.7)</t>
   </si>
 </sst>
 </file>
@@ -1196,16 +1202,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:XFD129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B21" sqref="B21"/>
+      <selection pane="topRight" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="80.5" customWidth="1"/>
-    <col min="3" max="5" width="39.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="33" customWidth="1"/>
+    <col min="4" max="5" width="39.6640625" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="39.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="41.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" style="33" customWidth="1"/>
@@ -1478,17 +1485,10 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>56992987</v>
-      </c>
-      <c r="F4" s="17">
-        <v>56992987</v>
-      </c>
+      <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="21">
-        <v>56992987</v>
-      </c>
+      <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="AV4" s="5"/>
@@ -1504,45 +1504,21 @@
       <c r="A5" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="33">
-        <f>C4*0.89</f>
-        <v>50723758.43</v>
-      </c>
-      <c r="F5" s="17">
-        <f>F4*0.89</f>
-        <v>50723758.43</v>
-      </c>
-      <c r="I5" s="21">
-        <f>I4*0.055</f>
-        <v>3134614.2850000001</v>
-      </c>
     </row>
     <row r="6" spans="1:871" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="59">
-        <f>C5*0.78</f>
-        <v>39564531.575400002</v>
-      </c>
-      <c r="F6" s="59">
-        <f>F5*0.22</f>
-        <v>11159226.854599999</v>
-      </c>
-      <c r="I6" s="59">
-        <f>I5*1</f>
-        <v>3134614.2850000001</v>
-      </c>
     </row>
     <row r="7" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C7" s="60">
-        <v>6500452.5378382206</v>
+        <v>6500452</v>
       </c>
       <c r="D7" s="60">
         <v>6500452.5378382206</v>
@@ -1613,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="60">
-        <v>6500452.5378382206</v>
+        <v>6500452</v>
       </c>
       <c r="D8" s="60">
         <v>6500452.5378382206</v>
@@ -1684,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="60">
-        <v>4494530.786965441</v>
+        <v>4494530</v>
       </c>
       <c r="D9" s="60">
         <v>4494530.786965441</v>
@@ -2559,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="60">
-        <v>2271004.1124279601</v>
+        <v>2271004</v>
       </c>
       <c r="D10" s="60">
         <v>2271004.1124279601</v>
@@ -3434,7 +3410,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="60">
-        <v>15370820.517042901</v>
+        <v>15370820</v>
       </c>
       <c r="D11" s="60">
         <v>15370820.517042901</v>
@@ -4309,7 +4285,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="60">
-        <v>4431227.5364448</v>
+        <v>4431227</v>
       </c>
       <c r="D12" s="60">
         <v>4431227.5364448</v>
@@ -7037,10 +7013,10 @@
     </row>
     <row r="19" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="68" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C19" s="63">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="D19" s="63">
         <v>0.88</v>
@@ -7079,32 +7055,32 @@
       <c r="A20" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="63" t="s">
-        <v>141</v>
+      <c r="C20" s="63">
+        <v>0.2</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O20" s="39"/>
       <c r="T20" s="47"/>
@@ -7938,7 +7914,7 @@
     </row>
     <row r="21" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C21" s="63">
         <v>0.51</v>
@@ -8799,7 +8775,7 @@
     </row>
     <row r="22" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C22" s="63">
         <v>0.23</v>
@@ -9660,7 +9636,7 @@
     </row>
     <row r="23" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C23" s="63">
         <v>0.2</v>
@@ -11377,34 +11353,34 @@
     </row>
     <row r="25" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
@@ -16779,8 +16755,9 @@
       <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="62" t="s">
-        <v>124</v>
+      <c r="C37" s="62">
+        <f>0.574/2</f>
+        <v>0.28699999999999998</v>
       </c>
       <c r="D37" s="65">
         <v>0</v>
@@ -16789,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="55" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="G37" s="66">
         <v>0</v>
@@ -16798,7 +16775,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="58" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="J37" s="67">
         <v>0</v>
@@ -17676,7 +17653,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D38" s="65">
         <v>0</v>
@@ -17685,7 +17662,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="G38" s="66">
         <v>0</v>
@@ -17694,7 +17671,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="58" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="J38" s="67">
         <v>0</v>
@@ -18580,7 +18557,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="55" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="G39" s="66">
         <v>0</v>
@@ -18589,7 +18566,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="58" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="J39" s="67">
         <v>0</v>
@@ -19466,7 +19443,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D40" s="65">
         <v>0</v>
@@ -19475,7 +19452,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="G40" s="66">
         <v>0</v>
@@ -19484,7 +19461,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="58" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="J40" s="67">
         <v>0</v>
@@ -20432,7 +20409,7 @@
         <v>67</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C43" s="33">
         <f>1/46</f>
@@ -21294,17 +21271,14 @@
       <c r="AGK43" s="3"/>
       <c r="AGL43" s="3"/>
       <c r="AGM43" s="3"/>
-      <c r="XFD43" s="33">
-        <f>1/106</f>
-        <v>9.433962264150943E-3</v>
-      </c>
+      <c r="XFD43" s="33"/>
     </row>
     <row r="44" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C44" s="33">
         <f>1/43</f>
@@ -22166,10 +22140,7 @@
       <c r="AGK44" s="3"/>
       <c r="AGL44" s="3"/>
       <c r="AGM44" s="3"/>
-      <c r="XFD44" s="33">
-        <f>1/106</f>
-        <v>9.433962264150943E-3</v>
-      </c>
+      <c r="XFD44" s="33"/>
     </row>
     <row r="45" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -22233,31 +22204,31 @@
         <v>20</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AV48" s="5"/>
       <c r="AW48" s="5"/>
@@ -23092,31 +23063,31 @@
         <v>21</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J49" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K49" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AV49" s="5"/>
       <c r="AW49" s="5"/>
@@ -23951,31 +23922,31 @@
         <v>22</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AV50" s="5"/>
       <c r="AW50" s="5"/>
@@ -24810,31 +24781,31 @@
         <v>23</v>
       </c>
       <c r="C51" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="64" t="s">
+      <c r="G51" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="H51" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F51" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>136</v>
-      </c>
       <c r="I51" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AV51" s="5"/>
       <c r="AW51" s="5"/>
@@ -25669,31 +25640,31 @@
         <v>24</v>
       </c>
       <c r="C52" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="G52" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="H52" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F52" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>137</v>
-      </c>
       <c r="I52" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AV52" s="5"/>
       <c r="AW52" s="5"/>
@@ -26528,31 +26499,31 @@
         <v>24</v>
       </c>
       <c r="C53" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="G53" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="H53" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F53" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>138</v>
-      </c>
       <c r="I53" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AV53" s="5"/>
       <c r="AW53" s="5"/>
@@ -28335,7 +28306,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D60" s="33">
         <v>0</v>
@@ -29198,7 +29169,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="33">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D61" s="33">
         <v>0</v>
@@ -30062,7 +30033,7 @@
         <v>31</v>
       </c>
       <c r="C62" s="33">
-        <v>0</v>
+        <v>92.88</v>
       </c>
       <c r="D62" s="33">
         <v>0</v>
@@ -30926,7 +30897,7 @@
         <v>32</v>
       </c>
       <c r="C63" s="33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D63" s="33">
         <v>0</v>
@@ -31790,7 +31761,7 @@
         <v>33</v>
       </c>
       <c r="C64" s="33">
-        <v>92.88</v>
+        <v>20</v>
       </c>
       <c r="D64" s="33">
         <v>92.88</v>
@@ -33544,7 +33515,7 @@
     </row>
     <row r="68" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
@@ -33563,13 +33534,12 @@
     </row>
     <row r="69" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C69" s="33">
-        <f>(1.66/6)*4.25</f>
         <v>1.1758333333333333</v>
       </c>
       <c r="D69" s="33">
@@ -34431,13 +34401,12 @@
     </row>
     <row r="70" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="33">
-        <f>(1.66/6)*4.25</f>
         <v>1.1758333333333333</v>
       </c>
       <c r="D70" s="33">
@@ -35299,13 +35268,12 @@
     </row>
     <row r="71" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C71" s="33">
-        <f>(8.53/15)*4.25</f>
         <v>2.4168333333333334</v>
       </c>
       <c r="D71" s="33">
@@ -36167,13 +36135,12 @@
     </row>
     <row r="72" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C72" s="33">
-        <f>(8.3/15)*4.25</f>
         <v>2.3516666666666666</v>
       </c>
       <c r="D72" s="33">
@@ -37035,13 +37002,12 @@
     </row>
     <row r="73" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="33">
-        <f>36/12</f>
         <v>3</v>
       </c>
       <c r="D73" s="33">
@@ -37903,13 +37869,12 @@
     </row>
     <row r="74" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C74" s="33">
-        <f>45/12</f>
         <v>3.75</v>
       </c>
       <c r="D74" s="33">
@@ -42527,13 +42492,13 @@
         <v>0</v>
       </c>
       <c r="I95" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J95" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K95" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AV95" s="5"/>
       <c r="AW95" s="5"/>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters POULTRY.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters POULTRY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FD179C-B8A1-A148-B67A-258EAA6FE026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D80E8-2EC8-4112-AE28-31ACA0F9AF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="10200" windowHeight="16140" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="-96" yWindow="14304" windowWidth="23232" windowHeight="12696" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="156">
   <si>
     <t># Initial population</t>
   </si>
@@ -496,9 +496,6 @@
     <t>rpert(10000, 1.3, 1.6, 1.45)</t>
   </si>
   <si>
-    <t>rpert(10000, 0.987, 1.15, 1.3)</t>
-  </si>
-  <si>
     <t>rpert(10000, 0.99, 1.336, 1.25)</t>
   </si>
   <si>
@@ -509,9 +506,6 @@
   </si>
   <si>
     <t>rpert(10000, 2.5, 5.0, 3.75)</t>
-  </si>
-  <si>
-    <t>egg_sale rate</t>
   </si>
   <si>
     <t>prop_females_laying</t>
@@ -575,6 +569,9 @@
   </si>
   <si>
     <t>rpert(10000, 0.59, 0.8, 0.7)</t>
+  </si>
+  <si>
+    <t>egg_sale_rate</t>
   </si>
 </sst>
 </file>
@@ -1202,57 +1199,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:XFD129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="80.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="33" customWidth="1"/>
-    <col min="4" max="5" width="39.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="39.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="41.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="16.5" style="33" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="33" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="33" customWidth="1"/>
+    <col min="4" max="5" width="39.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="39.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="41.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="33" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="33" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="33" customWidth="1"/>
     <col min="17" max="17" width="21" style="33" customWidth="1"/>
-    <col min="18" max="18" width="27.5" style="17" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" style="17" customWidth="1"/>
-    <col min="20" max="20" width="25.6640625" style="17" customWidth="1"/>
-    <col min="21" max="31" width="19.33203125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="27.42578125" style="17" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" style="17" customWidth="1"/>
+    <col min="21" max="31" width="19.28515625" style="17" customWidth="1"/>
     <col min="32" max="32" width="19" style="17" customWidth="1"/>
     <col min="33" max="33" width="27" style="21" customWidth="1"/>
-    <col min="34" max="34" width="23.5" style="21" customWidth="1"/>
-    <col min="35" max="35" width="29.83203125" style="21" customWidth="1"/>
+    <col min="34" max="34" width="23.42578125" style="21" customWidth="1"/>
+    <col min="35" max="35" width="29.85546875" style="21" customWidth="1"/>
     <col min="36" max="47" width="27" style="21" customWidth="1"/>
     <col min="48" max="48" width="22" bestFit="1" customWidth="1"/>
-    <col min="49" max="55" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="55" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="21" customWidth="1"/>
-    <col min="59" max="59" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="46.140625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="20" customWidth="1"/>
-    <col min="61" max="61" width="21.6640625" customWidth="1"/>
-    <col min="62" max="62" width="22.5" customWidth="1"/>
-    <col min="63" max="63" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.7109375" customWidth="1"/>
+    <col min="62" max="62" width="22.42578125" customWidth="1"/>
+    <col min="63" max="63" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="13" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="28" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="42.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="81" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="42.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="81" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:871" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:871" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
@@ -1343,7 +1342,7 @@
       <c r="CB1" s="4"/>
       <c r="CC1" s="4"/>
     </row>
-    <row r="2" spans="1:871" s="41" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:871" s="41" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>108</v>
       </c>
@@ -1413,7 +1412,7 @@
       <c r="CB2" s="45"/>
       <c r="CC2" s="45"/>
     </row>
-    <row r="3" spans="1:871" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:871" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -1481,7 +1480,7 @@
       <c r="AT3" s="20"/>
       <c r="AU3" s="20"/>
     </row>
-    <row r="4" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1500,17 +1499,17 @@
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
     </row>
-    <row r="5" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:871" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:871" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>58</v>
       </c>
@@ -1581,7 +1580,7 @@
       <c r="CB7" s="8"/>
       <c r="CC7" s="8"/>
     </row>
-    <row r="8" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>88</v>
       </c>
@@ -1652,7 +1651,7 @@
       <c r="CB8" s="8"/>
       <c r="CC8" s="8"/>
     </row>
-    <row r="9" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>59</v>
       </c>
@@ -2527,7 +2526,7 @@
       <c r="AGL9" s="3"/>
       <c r="AGM9" s="3"/>
     </row>
-    <row r="10" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>60</v>
       </c>
@@ -3402,7 +3401,7 @@
       <c r="AGL10" s="3"/>
       <c r="AGM10" s="3"/>
     </row>
-    <row r="11" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>61</v>
       </c>
@@ -4277,7 +4276,7 @@
       <c r="AGL11" s="3"/>
       <c r="AGM11" s="3"/>
     </row>
-    <row r="12" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>62</v>
       </c>
@@ -5153,7 +5152,7 @@
       <c r="AGL12" s="3"/>
       <c r="AGM12" s="3"/>
     </row>
-    <row r="13" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -5169,7 +5168,7 @@
       <c r="BB13" s="9"/>
       <c r="BC13" s="9"/>
     </row>
-    <row r="14" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -5189,7 +5188,7 @@
       <c r="BB14" s="9"/>
       <c r="BC14" s="9"/>
     </row>
-    <row r="15" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -6081,7 +6080,7 @@
       <c r="AGL15" s="3"/>
       <c r="AGM15" s="3"/>
     </row>
-    <row r="16" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>98</v>
       </c>
@@ -6973,7 +6972,7 @@
       <c r="AGL16" s="3"/>
       <c r="AGM16" s="3"/>
     </row>
-    <row r="17" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -6989,7 +6988,7 @@
       <c r="BB17" s="9"/>
       <c r="BC17" s="9"/>
     </row>
-    <row r="18" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -7011,9 +7010,9 @@
       <c r="BB18" s="9"/>
       <c r="BC18" s="9"/>
     </row>
-    <row r="19" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="63">
         <v>0.8</v>
@@ -7051,7 +7050,7 @@
       <c r="BB19" s="9"/>
       <c r="BC19" s="9"/>
     </row>
-    <row r="20" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>112</v>
       </c>
@@ -7059,28 +7058,28 @@
         <v>0.2</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O20" s="39"/>
       <c r="T20" s="47"/>
@@ -7912,9 +7911,9 @@
       <c r="AGL20" s="3"/>
       <c r="AGM20" s="3"/>
     </row>
-    <row r="21" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C21" s="63">
         <v>0.51</v>
@@ -8773,9 +8772,9 @@
       <c r="AGL21" s="3"/>
       <c r="AGM21" s="3"/>
     </row>
-    <row r="22" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C22" s="63">
         <v>0.23</v>
@@ -9634,9 +9633,9 @@
       <c r="AGL22" s="3"/>
       <c r="AGM22" s="3"/>
     </row>
-    <row r="23" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" s="63">
         <v>0.2</v>
@@ -10495,7 +10494,7 @@
       <c r="AGL23" s="3"/>
       <c r="AGM23" s="3"/>
     </row>
-    <row r="24" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>113</v>
       </c>
@@ -11351,36 +11350,36 @@
       <c r="AGL24" s="3"/>
       <c r="AGM24" s="3"/>
     </row>
-    <row r="25" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
@@ -11391,7 +11390,7 @@
       <c r="BB25" s="9"/>
       <c r="BC25" s="9"/>
     </row>
-    <row r="26" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -11410,7 +11409,7 @@
       <c r="BB26" s="9"/>
       <c r="BC26" s="9"/>
     </row>
-    <row r="27" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
@@ -11429,7 +11428,7 @@
       <c r="BB27" s="9"/>
       <c r="BC27" s="9"/>
     </row>
-    <row r="28" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -11448,7 +11447,7 @@
       <c r="BB28" s="9"/>
       <c r="BC28" s="9"/>
     </row>
-    <row r="29" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>102</v>
       </c>
@@ -12304,7 +12303,7 @@
       <c r="AGL29" s="3"/>
       <c r="AGM29" s="3"/>
     </row>
-    <row r="30" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>103</v>
       </c>
@@ -13160,7 +13159,7 @@
       <c r="AGL30" s="3"/>
       <c r="AGM30" s="3"/>
     </row>
-    <row r="31" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>104</v>
       </c>
@@ -14022,7 +14021,7 @@
       <c r="AGL31" s="3"/>
       <c r="AGM31" s="3"/>
     </row>
-    <row r="32" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>106</v>
       </c>
@@ -14884,7 +14883,7 @@
       <c r="AGL32" s="3"/>
       <c r="AGM32" s="3"/>
     </row>
-    <row r="33" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>105</v>
       </c>
@@ -15779,7 +15778,7 @@
       <c r="AGL33" s="3"/>
       <c r="AGM33" s="3"/>
     </row>
-    <row r="34" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>107</v>
       </c>
@@ -16674,7 +16673,7 @@
       <c r="AGL34" s="3"/>
       <c r="AGM34" s="3"/>
     </row>
-    <row r="35" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -16690,7 +16689,7 @@
       <c r="BB35" s="9"/>
       <c r="BC35" s="9"/>
     </row>
-    <row r="36" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
@@ -16748,7 +16747,7 @@
       <c r="BB36" s="9"/>
       <c r="BC36" s="9"/>
     </row>
-    <row r="37" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>63</v>
       </c>
@@ -16766,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G37" s="66">
         <v>0</v>
@@ -16775,7 +16774,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J37" s="67">
         <v>0</v>
@@ -17645,7 +17644,7 @@
       <c r="AGM37" s="3"/>
       <c r="XFD37" s="36"/>
     </row>
-    <row r="38" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>64</v>
       </c>
@@ -17653,7 +17652,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D38" s="65">
         <v>0</v>
@@ -17662,7 +17661,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G38" s="66">
         <v>0</v>
@@ -17671,7 +17670,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J38" s="67">
         <v>0</v>
@@ -18540,7 +18539,7 @@
       <c r="AGL38" s="3"/>
       <c r="AGM38" s="3"/>
     </row>
-    <row r="39" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>65</v>
       </c>
@@ -18557,7 +18556,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G39" s="66">
         <v>0</v>
@@ -18566,7 +18565,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J39" s="67">
         <v>0</v>
@@ -19435,7 +19434,7 @@
       <c r="AGL39" s="3"/>
       <c r="AGM39" s="3"/>
     </row>
-    <row r="40" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>66</v>
       </c>
@@ -19443,7 +19442,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D40" s="65">
         <v>0</v>
@@ -19452,7 +19451,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G40" s="66">
         <v>0</v>
@@ -19461,7 +19460,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J40" s="67">
         <v>0</v>
@@ -20330,7 +20329,7 @@
       <c r="AGL40" s="3"/>
       <c r="AGM40" s="3"/>
     </row>
-    <row r="41" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -20385,7 +20384,7 @@
       <c r="BB41" s="9"/>
       <c r="BC41" s="9"/>
     </row>
-    <row r="42" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
@@ -20404,7 +20403,7 @@
       <c r="BB42" s="9"/>
       <c r="BC42" s="9"/>
     </row>
-    <row r="43" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>67</v>
       </c>
@@ -21273,7 +21272,7 @@
       <c r="AGM43" s="3"/>
       <c r="XFD43" s="33"/>
     </row>
-    <row r="44" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>68</v>
       </c>
@@ -22142,7 +22141,7 @@
       <c r="AGM44" s="3"/>
       <c r="XFD44" s="33"/>
     </row>
-    <row r="45" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>18</v>
       </c>
@@ -22161,7 +22160,7 @@
       <c r="BB45" s="9"/>
       <c r="BC45" s="9"/>
     </row>
-    <row r="46" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -22177,7 +22176,7 @@
       <c r="BB46" s="9"/>
       <c r="BC46" s="9"/>
     </row>
-    <row r="47" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>19</v>
       </c>
@@ -22196,7 +22195,7 @@
       <c r="BB47" s="9"/>
       <c r="BC47" s="9"/>
     </row>
-    <row r="48" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>69</v>
       </c>
@@ -23055,7 +23054,7 @@
       <c r="AGL48" s="3"/>
       <c r="AGM48" s="3"/>
     </row>
-    <row r="49" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>70</v>
       </c>
@@ -23914,7 +23913,7 @@
       <c r="AGL49" s="3"/>
       <c r="AGM49" s="3"/>
     </row>
-    <row r="50" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>71</v>
       </c>
@@ -23922,7 +23921,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="33" t="s">
         <v>128</v>
@@ -23931,22 +23930,22 @@
         <v>128</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AV50" s="5"/>
       <c r="AW50" s="5"/>
@@ -24773,7 +24772,7 @@
       <c r="AGL50" s="3"/>
       <c r="AGM50" s="3"/>
     </row>
-    <row r="51" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>72</v>
       </c>
@@ -24781,7 +24780,7 @@
         <v>23</v>
       </c>
       <c r="C51" s="64" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="64" t="s">
         <v>128</v>
@@ -24790,22 +24789,22 @@
         <v>128</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AV51" s="5"/>
       <c r="AW51" s="5"/>
@@ -25632,7 +25631,7 @@
       <c r="AGL51" s="3"/>
       <c r="AGM51" s="3"/>
     </row>
-    <row r="52" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>73</v>
       </c>
@@ -25649,22 +25648,22 @@
         <v>129</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AV52" s="5"/>
       <c r="AW52" s="5"/>
@@ -26491,7 +26490,7 @@
       <c r="AGL52" s="3"/>
       <c r="AGM52" s="3"/>
     </row>
-    <row r="53" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>74</v>
       </c>
@@ -26499,31 +26498,31 @@
         <v>24</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AV53" s="5"/>
       <c r="AW53" s="5"/>
@@ -27350,7 +27349,7 @@
       <c r="AGL53" s="3"/>
       <c r="AGM53" s="3"/>
     </row>
-    <row r="54" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
@@ -27366,7 +27365,7 @@
       <c r="BB54" s="9"/>
       <c r="BC54" s="9"/>
     </row>
-    <row r="55" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>25</v>
       </c>
@@ -27385,7 +27384,7 @@
       <c r="BB55" s="9"/>
       <c r="BC55" s="9"/>
     </row>
-    <row r="56" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>75</v>
       </c>
@@ -28244,7 +28243,7 @@
       <c r="AGL56" s="3"/>
       <c r="AGM56" s="3"/>
     </row>
-    <row r="57" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
@@ -28260,7 +28259,7 @@
       <c r="BB57" s="9"/>
       <c r="BC57" s="9"/>
     </row>
-    <row r="58" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
@@ -28279,7 +28278,7 @@
       <c r="BB58" s="9"/>
       <c r="BC58" s="9"/>
     </row>
-    <row r="59" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>28</v>
       </c>
@@ -28298,7 +28297,7 @@
       <c r="BB59" s="9"/>
       <c r="BC59" s="9"/>
     </row>
-    <row r="60" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>76</v>
       </c>
@@ -29161,7 +29160,7 @@
       <c r="AGL60" s="3"/>
       <c r="AGM60" s="3"/>
     </row>
-    <row r="61" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>77</v>
       </c>
@@ -30025,7 +30024,7 @@
       <c r="AGL61" s="3"/>
       <c r="AGM61" s="3"/>
     </row>
-    <row r="62" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>78</v>
       </c>
@@ -30889,7 +30888,7 @@
       <c r="AGL62" s="3"/>
       <c r="AGM62" s="3"/>
     </row>
-    <row r="63" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>79</v>
       </c>
@@ -31753,7 +31752,7 @@
       <c r="AGL63" s="3"/>
       <c r="AGM63" s="3"/>
     </row>
-    <row r="64" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>80</v>
       </c>
@@ -32617,7 +32616,7 @@
       <c r="AGL64" s="3"/>
       <c r="AGM64" s="3"/>
     </row>
-    <row r="65" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>81</v>
       </c>
@@ -33481,7 +33480,7 @@
       <c r="AGL65" s="3"/>
       <c r="AGM65" s="3"/>
     </row>
-    <row r="66" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
@@ -33497,7 +33496,7 @@
       <c r="BB66" s="9"/>
       <c r="BC66" s="9"/>
     </row>
-    <row r="67" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -33513,9 +33512,9 @@
       <c r="BB67" s="9"/>
       <c r="BC67" s="9"/>
     </row>
-    <row r="68" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
@@ -33532,9 +33531,9 @@
       <c r="BB68" s="9"/>
       <c r="BC68" s="9"/>
     </row>
-    <row r="69" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>35</v>
@@ -34399,9 +34398,9 @@
       <c r="AGL69" s="3"/>
       <c r="AGM69" s="3"/>
     </row>
-    <row r="70" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>35</v>
@@ -35266,9 +35265,9 @@
       <c r="AGL70" s="3"/>
       <c r="AGM70" s="3"/>
     </row>
-    <row r="71" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>36</v>
@@ -36133,9 +36132,9 @@
       <c r="AGL71" s="3"/>
       <c r="AGM71" s="3"/>
     </row>
-    <row r="72" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>36</v>
@@ -37000,9 +36999,9 @@
       <c r="AGL72" s="3"/>
       <c r="AGM72" s="3"/>
     </row>
-    <row r="73" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>37</v>
@@ -37867,9 +37866,9 @@
       <c r="AGL73" s="3"/>
       <c r="AGM73" s="3"/>
     </row>
-    <row r="74" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>37</v>
@@ -38734,7 +38733,7 @@
       <c r="AGL74" s="3"/>
       <c r="AGM74" s="3"/>
     </row>
-    <row r="75" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
@@ -38763,7 +38762,7 @@
       <c r="BO75" s="9"/>
       <c r="BP75" s="9"/>
     </row>
-    <row r="76" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>38</v>
       </c>
@@ -38782,7 +38781,7 @@
       <c r="BB76" s="9"/>
       <c r="BC76" s="9"/>
     </row>
-    <row r="77" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>39</v>
       </c>
@@ -38801,7 +38800,7 @@
       <c r="BB77" s="9"/>
       <c r="BC77" s="9"/>
     </row>
-    <row r="78" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>82</v>
       </c>
@@ -39658,7 +39657,7 @@
       <c r="AGL78" s="3"/>
       <c r="AGM78" s="3"/>
     </row>
-    <row r="79" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -39674,7 +39673,7 @@
       <c r="BB79" s="9"/>
       <c r="BC79" s="9"/>
     </row>
-    <row r="80" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>40</v>
       </c>
@@ -39693,7 +39692,7 @@
       <c r="BB80" s="9"/>
       <c r="BC80" s="9"/>
     </row>
-    <row r="81" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>39</v>
       </c>
@@ -39712,7 +39711,7 @@
       <c r="BB81" s="9"/>
       <c r="BC81" s="9"/>
     </row>
-    <row r="82" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>83</v>
       </c>
@@ -40569,7 +40568,7 @@
       <c r="AGL82" s="3"/>
       <c r="AGM82" s="3"/>
     </row>
-    <row r="83" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
@@ -40585,7 +40584,7 @@
       <c r="BB83" s="9"/>
       <c r="BC83" s="9"/>
     </row>
-    <row r="84" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>41</v>
       </c>
@@ -40604,7 +40603,7 @@
       <c r="BB84" s="9"/>
       <c r="BC84" s="9"/>
     </row>
-    <row r="85" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>84</v>
       </c>
@@ -41463,7 +41462,7 @@
       <c r="AGL85" s="3"/>
       <c r="AGM85" s="3"/>
     </row>
-    <row r="86" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
@@ -41479,7 +41478,7 @@
       <c r="BB86" s="9"/>
       <c r="BC86" s="9"/>
     </row>
-    <row r="87" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>43</v>
       </c>
@@ -41498,7 +41497,7 @@
       <c r="BB87" s="9"/>
       <c r="BC87" s="9"/>
     </row>
-    <row r="88" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>44</v>
       </c>
@@ -41517,7 +41516,7 @@
       <c r="BB88" s="9"/>
       <c r="BC88" s="9"/>
     </row>
-    <row r="89" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>45</v>
       </c>
@@ -41536,7 +41535,7 @@
       <c r="BB89" s="9"/>
       <c r="BC89" s="9"/>
     </row>
-    <row r="90" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>85</v>
       </c>
@@ -42395,7 +42394,7 @@
       <c r="AGL90" s="3"/>
       <c r="AGM90" s="3"/>
     </row>
-    <row r="91" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
@@ -42411,7 +42410,7 @@
       <c r="BB91" s="9"/>
       <c r="BC91" s="9"/>
     </row>
-    <row r="92" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>47</v>
       </c>
@@ -42430,7 +42429,7 @@
       <c r="BB92" s="9"/>
       <c r="BC92" s="9"/>
     </row>
-    <row r="93" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>48</v>
       </c>
@@ -42449,7 +42448,7 @@
       <c r="BB93" s="9"/>
       <c r="BC93" s="9"/>
     </row>
-    <row r="94" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>49</v>
       </c>
@@ -42468,7 +42467,7 @@
       <c r="BB94" s="9"/>
       <c r="BC94" s="9"/>
     </row>
-    <row r="95" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>122</v>
       </c>
@@ -42492,13 +42491,13 @@
         <v>0</v>
       </c>
       <c r="I95" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J95" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K95" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AV95" s="5"/>
       <c r="AW95" s="5"/>
@@ -43325,7 +43324,7 @@
       <c r="AGL95" s="3"/>
       <c r="AGM95" s="3"/>
     </row>
-    <row r="96" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>86</v>
       </c>
@@ -44184,7 +44183,7 @@
       <c r="AGL96" s="3"/>
       <c r="AGM96" s="3"/>
     </row>
-    <row r="97" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>50</v>
       </c>
@@ -44203,7 +44202,7 @@
       <c r="BB97" s="9"/>
       <c r="BC97" s="9"/>
     </row>
-    <row r="98" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>48</v>
       </c>
@@ -44222,7 +44221,7 @@
       <c r="BB98" s="9"/>
       <c r="BC98" s="9"/>
     </row>
-    <row r="99" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>51</v>
       </c>
@@ -44241,7 +44240,7 @@
       <c r="BB99" s="9"/>
       <c r="BC99" s="9"/>
     </row>
-    <row r="100" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>52</v>
       </c>
@@ -44260,7 +44259,7 @@
       <c r="BB100" s="9"/>
       <c r="BC100" s="9"/>
     </row>
-    <row r="101" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>99</v>
       </c>
@@ -45121,7 +45120,7 @@
       <c r="AGL101" s="3"/>
       <c r="AGM101" s="3"/>
     </row>
-    <row r="102" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>100</v>
       </c>
@@ -45980,7 +45979,7 @@
       <c r="AGL102" s="3"/>
       <c r="AGM102" s="3"/>
     </row>
-    <row r="103" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
@@ -45996,7 +45995,7 @@
       <c r="BB103" s="9"/>
       <c r="BC103" s="9"/>
     </row>
-    <row r="104" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>54</v>
       </c>
@@ -46015,7 +46014,7 @@
       <c r="BB104" s="9"/>
       <c r="BC104" s="9"/>
     </row>
-    <row r="105" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>55</v>
       </c>
@@ -46034,7 +46033,7 @@
       <c r="BB105" s="9"/>
       <c r="BC105" s="9"/>
     </row>
-    <row r="106" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>87</v>
       </c>
@@ -46891,7 +46890,7 @@
       <c r="AGL106" s="3"/>
       <c r="AGM106" s="3"/>
     </row>
-    <row r="107" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:871" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>101</v>
       </c>
@@ -47748,7 +47747,7 @@
       <c r="AGL107" s="3"/>
       <c r="AGM107" s="3"/>
     </row>
-    <row r="108" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
@@ -47764,7 +47763,7 @@
       <c r="BB108" s="9"/>
       <c r="BC108" s="9"/>
     </row>
-    <row r="109" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
@@ -47772,7 +47771,7 @@
       <c r="J109" s="21"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F110" s="17"/>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
@@ -47780,7 +47779,7 @@
       <c r="J110" s="21"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
@@ -47788,7 +47787,7 @@
       <c r="J111" s="21"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
@@ -47796,7 +47795,7 @@
       <c r="J112" s="21"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
@@ -47804,7 +47803,7 @@
       <c r="J113" s="21"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
@@ -47812,7 +47811,7 @@
       <c r="J114" s="21"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F115" s="17"/>
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
@@ -47820,7 +47819,7 @@
       <c r="J115" s="21"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
@@ -47828,7 +47827,7 @@
       <c r="J116" s="21"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
@@ -47836,7 +47835,7 @@
       <c r="J117" s="21"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F118" s="17"/>
       <c r="G118" s="17"/>
       <c r="H118" s="17"/>
@@ -47844,7 +47843,7 @@
       <c r="J118" s="21"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F119" s="17"/>
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
@@ -47852,7 +47851,7 @@
       <c r="J119" s="21"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F120" s="17"/>
       <c r="G120" s="17"/>
       <c r="H120" s="17"/>
@@ -47860,7 +47859,7 @@
       <c r="J120" s="21"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
       <c r="H121" s="17"/>
@@ -47868,7 +47867,7 @@
       <c r="J121" s="21"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F122" s="17"/>
       <c r="G122" s="17"/>
       <c r="H122" s="17"/>
@@ -47876,7 +47875,7 @@
       <c r="J122" s="21"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
       <c r="H123" s="17"/>
@@ -47884,7 +47883,7 @@
       <c r="J123" s="21"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
       <c r="H124" s="17"/>
@@ -47892,7 +47891,7 @@
       <c r="J124" s="21"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
       <c r="H125" s="17"/>
@@ -47900,7 +47899,7 @@
       <c r="J125" s="21"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F126" s="17"/>
       <c r="G126" s="17"/>
       <c r="H126" s="17"/>
@@ -47908,7 +47907,7 @@
       <c r="J126" s="21"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F127" s="17"/>
       <c r="G127" s="17"/>
       <c r="H127" s="17"/>
@@ -47916,7 +47915,7 @@
       <c r="J127" s="21"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F128" s="17"/>
       <c r="G128" s="17"/>
       <c r="H128" s="17"/>
@@ -47924,7 +47923,7 @@
       <c r="J128" s="21"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F129" s="17"/>
       <c r="G129" s="17"/>
       <c r="H129" s="17"/>
@@ -47948,39 +47947,39 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>95</v>
       </c>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters POULTRY.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters POULTRY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D80E8-2EC8-4112-AE28-31ACA0F9AF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3535CF4-95B2-6143-987B-CE55F4FF7F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="14304" windowWidth="23232" windowHeight="12696" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="520" yWindow="1160" windowWidth="28800" windowHeight="16180" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="164">
   <si>
     <t># Initial population</t>
   </si>
@@ -490,9 +490,6 @@
     <t>rpert(10000, 0.0271, 0.18, 0.09)</t>
   </si>
   <si>
-    <t>rpert(10000, 0.6, 0.8, 0.7)</t>
-  </si>
-  <si>
     <t>rpert(10000, 1.3, 1.6, 1.45)</t>
   </si>
   <si>
@@ -565,13 +562,40 @@
     <t>rpert(10000, 0.12/4, 0.25/4, 0.185/4)</t>
   </si>
   <si>
-    <t>rpert(10000, 0.987, 1.3, 1.15)</t>
-  </si>
-  <si>
     <t>rpert(10000, 0.59, 0.8, 0.7)</t>
   </si>
   <si>
     <t>egg_sale_rate</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.987, 1.75, 1.55)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.1, 0.75, 0.13)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.1, 0.7, 0.163)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.3, 1.5, 1.08)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.3, 3.375, 1.55)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.65, 2.1, 1.49)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 0.8, 2.2, 1.79)</t>
+  </si>
+  <si>
+    <t>rpert(10000,0.67, 17.5, 5)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 6, 26, 16)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 14, 30, 17)</t>
   </si>
 </sst>
 </file>
@@ -642,7 +666,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,6 +763,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -761,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -883,6 +919,9 @@
     <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,59 +1238,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:XFD129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="33" customWidth="1"/>
-    <col min="4" max="5" width="39.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="39.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="41.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="33" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="33" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="33" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="33" customWidth="1"/>
+    <col min="4" max="5" width="39.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="39.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="41.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="33" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" style="33" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" style="33" customWidth="1"/>
     <col min="17" max="17" width="21" style="33" customWidth="1"/>
-    <col min="18" max="18" width="27.42578125" style="17" customWidth="1"/>
-    <col min="19" max="19" width="27.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="25.7109375" style="17" customWidth="1"/>
-    <col min="21" max="31" width="19.28515625" style="17" customWidth="1"/>
+    <col min="18" max="18" width="27.5" style="17" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" style="17" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" style="17" customWidth="1"/>
+    <col min="21" max="31" width="19.33203125" style="17" customWidth="1"/>
     <col min="32" max="32" width="19" style="17" customWidth="1"/>
     <col min="33" max="33" width="27" style="21" customWidth="1"/>
-    <col min="34" max="34" width="23.42578125" style="21" customWidth="1"/>
-    <col min="35" max="35" width="29.85546875" style="21" customWidth="1"/>
+    <col min="34" max="34" width="23.5" style="21" customWidth="1"/>
+    <col min="35" max="35" width="29.83203125" style="21" customWidth="1"/>
     <col min="36" max="47" width="27" style="21" customWidth="1"/>
     <col min="48" max="48" width="22" bestFit="1" customWidth="1"/>
-    <col min="49" max="55" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="55" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="21" customWidth="1"/>
-    <col min="59" max="59" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="46.1640625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="20" customWidth="1"/>
-    <col min="61" max="61" width="21.7109375" customWidth="1"/>
-    <col min="62" max="62" width="22.42578125" customWidth="1"/>
-    <col min="63" max="63" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.6640625" customWidth="1"/>
+    <col min="62" max="62" width="22.5" customWidth="1"/>
+    <col min="63" max="63" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="13" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="28" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="42.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="81" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="42.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="81" width="42.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:871" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:871" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
@@ -1342,7 +1381,7 @@
       <c r="CB1" s="4"/>
       <c r="CC1" s="4"/>
     </row>
-    <row r="2" spans="1:871" s="41" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:871" s="41" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>108</v>
       </c>
@@ -1412,7 +1451,7 @@
       <c r="CB2" s="45"/>
       <c r="CC2" s="45"/>
     </row>
-    <row r="3" spans="1:871" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:871" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -1480,7 +1519,7 @@
       <c r="AT3" s="20"/>
       <c r="AU3" s="20"/>
     </row>
-    <row r="4" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1499,17 +1538,17 @@
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
     </row>
-    <row r="5" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:871" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:871" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>58</v>
       </c>
@@ -1580,7 +1619,7 @@
       <c r="CB7" s="8"/>
       <c r="CC7" s="8"/>
     </row>
-    <row r="8" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>88</v>
       </c>
@@ -1651,7 +1690,7 @@
       <c r="CB8" s="8"/>
       <c r="CC8" s="8"/>
     </row>
-    <row r="9" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>59</v>
       </c>
@@ -2526,7 +2565,7 @@
       <c r="AGL9" s="3"/>
       <c r="AGM9" s="3"/>
     </row>
-    <row r="10" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>60</v>
       </c>
@@ -3401,7 +3440,7 @@
       <c r="AGL10" s="3"/>
       <c r="AGM10" s="3"/>
     </row>
-    <row r="11" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>61</v>
       </c>
@@ -4276,7 +4315,7 @@
       <c r="AGL11" s="3"/>
       <c r="AGM11" s="3"/>
     </row>
-    <row r="12" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>62</v>
       </c>
@@ -5152,7 +5191,7 @@
       <c r="AGL12" s="3"/>
       <c r="AGM12" s="3"/>
     </row>
-    <row r="13" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -5168,7 +5207,7 @@
       <c r="BB13" s="9"/>
       <c r="BC13" s="9"/>
     </row>
-    <row r="14" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -5188,7 +5227,7 @@
       <c r="BB14" s="9"/>
       <c r="BC14" s="9"/>
     </row>
-    <row r="15" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -6080,7 +6119,7 @@
       <c r="AGL15" s="3"/>
       <c r="AGM15" s="3"/>
     </row>
-    <row r="16" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>98</v>
       </c>
@@ -6972,7 +7011,7 @@
       <c r="AGL16" s="3"/>
       <c r="AGM16" s="3"/>
     </row>
-    <row r="17" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -6988,7 +7027,7 @@
       <c r="BB17" s="9"/>
       <c r="BC17" s="9"/>
     </row>
-    <row r="18" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -7010,12 +7049,12 @@
       <c r="BB18" s="9"/>
       <c r="BC18" s="9"/>
     </row>
-    <row r="19" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="63">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="D19" s="63">
         <v>0.88</v>
@@ -7050,36 +7089,36 @@
       <c r="BB19" s="9"/>
       <c r="BC19" s="9"/>
     </row>
-    <row r="20" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="63">
-        <v>0.2</v>
+      <c r="C20" s="63" t="s">
+        <v>134</v>
       </c>
       <c r="D20" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="J20" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>136</v>
+      <c r="K20" s="71" t="s">
+        <v>163</v>
       </c>
       <c r="O20" s="39"/>
       <c r="T20" s="47"/>
@@ -7911,9 +7950,9 @@
       <c r="AGL20" s="3"/>
       <c r="AGM20" s="3"/>
     </row>
-    <row r="21" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="63">
         <v>0.51</v>
@@ -8772,9 +8811,9 @@
       <c r="AGL21" s="3"/>
       <c r="AGM21" s="3"/>
     </row>
-    <row r="22" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C22" s="63">
         <v>0.23</v>
@@ -9633,9 +9672,9 @@
       <c r="AGL22" s="3"/>
       <c r="AGM22" s="3"/>
     </row>
-    <row r="23" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="63">
         <v>0.2</v>
@@ -10494,7 +10533,7 @@
       <c r="AGL23" s="3"/>
       <c r="AGM23" s="3"/>
     </row>
-    <row r="24" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>113</v>
       </c>
@@ -11350,36 +11389,36 @@
       <c r="AGL24" s="3"/>
       <c r="AGM24" s="3"/>
     </row>
-    <row r="25" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
@@ -11390,7 +11429,7 @@
       <c r="BB25" s="9"/>
       <c r="BC25" s="9"/>
     </row>
-    <row r="26" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -11409,7 +11448,7 @@
       <c r="BB26" s="9"/>
       <c r="BC26" s="9"/>
     </row>
-    <row r="27" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
@@ -11428,7 +11467,7 @@
       <c r="BB27" s="9"/>
       <c r="BC27" s="9"/>
     </row>
-    <row r="28" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -11447,7 +11486,7 @@
       <c r="BB28" s="9"/>
       <c r="BC28" s="9"/>
     </row>
-    <row r="29" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>102</v>
       </c>
@@ -12303,7 +12342,7 @@
       <c r="AGL29" s="3"/>
       <c r="AGM29" s="3"/>
     </row>
-    <row r="30" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>103</v>
       </c>
@@ -13159,7 +13198,7 @@
       <c r="AGL30" s="3"/>
       <c r="AGM30" s="3"/>
     </row>
-    <row r="31" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>104</v>
       </c>
@@ -14021,7 +14060,7 @@
       <c r="AGL31" s="3"/>
       <c r="AGM31" s="3"/>
     </row>
-    <row r="32" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>106</v>
       </c>
@@ -14883,7 +14922,7 @@
       <c r="AGL32" s="3"/>
       <c r="AGM32" s="3"/>
     </row>
-    <row r="33" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>105</v>
       </c>
@@ -15778,7 +15817,7 @@
       <c r="AGL33" s="3"/>
       <c r="AGM33" s="3"/>
     </row>
-    <row r="34" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>107</v>
       </c>
@@ -16673,7 +16712,7 @@
       <c r="AGL34" s="3"/>
       <c r="AGM34" s="3"/>
     </row>
-    <row r="35" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -16689,7 +16728,7 @@
       <c r="BB35" s="9"/>
       <c r="BC35" s="9"/>
     </row>
-    <row r="36" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
@@ -16747,7 +16786,7 @@
       <c r="BB36" s="9"/>
       <c r="BC36" s="9"/>
     </row>
-    <row r="37" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>63</v>
       </c>
@@ -16765,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G37" s="66">
         <v>0</v>
@@ -16774,7 +16813,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J37" s="67">
         <v>0</v>
@@ -17644,7 +17683,7 @@
       <c r="AGM37" s="3"/>
       <c r="XFD37" s="36"/>
     </row>
-    <row r="38" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>64</v>
       </c>
@@ -17652,7 +17691,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D38" s="65">
         <v>0</v>
@@ -17661,7 +17700,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G38" s="66">
         <v>0</v>
@@ -17670,7 +17709,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J38" s="67">
         <v>0</v>
@@ -18539,7 +18578,7 @@
       <c r="AGL38" s="3"/>
       <c r="AGM38" s="3"/>
     </row>
-    <row r="39" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>65</v>
       </c>
@@ -18556,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G39" s="66">
         <v>0</v>
@@ -18565,7 +18604,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J39" s="67">
         <v>0</v>
@@ -19434,7 +19473,7 @@
       <c r="AGL39" s="3"/>
       <c r="AGM39" s="3"/>
     </row>
-    <row r="40" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>66</v>
       </c>
@@ -19442,7 +19481,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D40" s="65">
         <v>0</v>
@@ -19451,7 +19490,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G40" s="66">
         <v>0</v>
@@ -19460,7 +19499,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J40" s="67">
         <v>0</v>
@@ -20329,7 +20368,7 @@
       <c r="AGL40" s="3"/>
       <c r="AGM40" s="3"/>
     </row>
-    <row r="41" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -20384,7 +20423,7 @@
       <c r="BB41" s="9"/>
       <c r="BC41" s="9"/>
     </row>
-    <row r="42" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
@@ -20403,7 +20442,7 @@
       <c r="BB42" s="9"/>
       <c r="BC42" s="9"/>
     </row>
-    <row r="43" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>67</v>
       </c>
@@ -21272,7 +21311,7 @@
       <c r="AGM43" s="3"/>
       <c r="XFD43" s="33"/>
     </row>
-    <row r="44" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>68</v>
       </c>
@@ -22141,7 +22180,7 @@
       <c r="AGM44" s="3"/>
       <c r="XFD44" s="33"/>
     </row>
-    <row r="45" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>18</v>
       </c>
@@ -22160,7 +22199,7 @@
       <c r="BB45" s="9"/>
       <c r="BC45" s="9"/>
     </row>
-    <row r="46" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -22176,7 +22215,7 @@
       <c r="BB46" s="9"/>
       <c r="BC46" s="9"/>
     </row>
-    <row r="47" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:871 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>19</v>
       </c>
@@ -22195,7 +22234,7 @@
       <c r="BB47" s="9"/>
       <c r="BC47" s="9"/>
     </row>
-    <row r="48" spans="1:871 16384:16384" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:871 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>69</v>
       </c>
@@ -22208,8 +22247,8 @@
       <c r="D48" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="33" t="s">
-        <v>127</v>
+      <c r="E48" s="39" t="s">
+        <v>155</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>127</v>
@@ -23054,7 +23093,7 @@
       <c r="AGL48" s="3"/>
       <c r="AGM48" s="3"/>
     </row>
-    <row r="49" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>70</v>
       </c>
@@ -23067,8 +23106,8 @@
       <c r="D49" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="33" t="s">
-        <v>127</v>
+      <c r="E49" s="39" t="s">
+        <v>156</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>127</v>
@@ -23913,7 +23952,7 @@
       <c r="AGL49" s="3"/>
       <c r="AGM49" s="3"/>
     </row>
-    <row r="50" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>71</v>
       </c>
@@ -23921,31 +23960,31 @@
         <v>22</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>128</v>
+        <v>152</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>157</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AV50" s="5"/>
       <c r="AW50" s="5"/>
@@ -24772,7 +24811,7 @@
       <c r="AGL50" s="3"/>
       <c r="AGM50" s="3"/>
     </row>
-    <row r="51" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>72</v>
       </c>
@@ -24780,31 +24819,31 @@
         <v>23</v>
       </c>
       <c r="C51" s="64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>128</v>
+        <v>152</v>
+      </c>
+      <c r="E51" s="70" t="s">
+        <v>158</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AV51" s="5"/>
       <c r="AW51" s="5"/>
@@ -25631,7 +25670,7 @@
       <c r="AGL51" s="3"/>
       <c r="AGM51" s="3"/>
     </row>
-    <row r="52" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>73</v>
       </c>
@@ -25639,31 +25678,31 @@
         <v>24</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>159</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AV52" s="5"/>
       <c r="AW52" s="5"/>
@@ -26490,39 +26529,39 @@
       <c r="AGL52" s="3"/>
       <c r="AGM52" s="3"/>
     </row>
-    <row r="53" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B53" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>153</v>
+      <c r="C53" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>160</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AV53" s="5"/>
       <c r="AW53" s="5"/>
@@ -27349,7 +27388,7 @@
       <c r="AGL53" s="3"/>
       <c r="AGM53" s="3"/>
     </row>
-    <row r="54" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
@@ -27365,7 +27404,7 @@
       <c r="BB54" s="9"/>
       <c r="BC54" s="9"/>
     </row>
-    <row r="55" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>25</v>
       </c>
@@ -27384,7 +27423,7 @@
       <c r="BB55" s="9"/>
       <c r="BC55" s="9"/>
     </row>
-    <row r="56" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>75</v>
       </c>
@@ -28243,7 +28282,7 @@
       <c r="AGL56" s="3"/>
       <c r="AGM56" s="3"/>
     </row>
-    <row r="57" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
@@ -28259,7 +28298,7 @@
       <c r="BB57" s="9"/>
       <c r="BC57" s="9"/>
     </row>
-    <row r="58" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
@@ -28278,7 +28317,7 @@
       <c r="BB58" s="9"/>
       <c r="BC58" s="9"/>
     </row>
-    <row r="59" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>28</v>
       </c>
@@ -28297,7 +28336,7 @@
       <c r="BB59" s="9"/>
       <c r="BC59" s="9"/>
     </row>
-    <row r="60" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>76</v>
       </c>
@@ -28305,31 +28344,31 @@
         <v>29</v>
       </c>
       <c r="C60" s="33">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D60" s="33">
-        <v>0</v>
-      </c>
-      <c r="E60" s="33">
-        <v>0</v>
-      </c>
-      <c r="F60" s="17">
-        <v>0</v>
-      </c>
-      <c r="G60" s="17">
-        <v>0</v>
-      </c>
-      <c r="H60" s="17">
-        <v>0</v>
-      </c>
-      <c r="I60" s="21">
-        <v>0</v>
-      </c>
-      <c r="J60" s="21">
-        <v>0</v>
-      </c>
-      <c r="K60" s="21">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="E60" s="39">
+        <v>47</v>
+      </c>
+      <c r="F60" s="33">
+        <v>32</v>
+      </c>
+      <c r="G60" s="33">
+        <v>32</v>
+      </c>
+      <c r="H60" s="39">
+        <v>47</v>
+      </c>
+      <c r="I60" s="33">
+        <v>32</v>
+      </c>
+      <c r="J60" s="33">
+        <v>32</v>
+      </c>
+      <c r="K60" s="39">
+        <v>47</v>
       </c>
       <c r="T60" s="47"/>
       <c r="Z60" s="47"/>
@@ -29160,7 +29199,7 @@
       <c r="AGL60" s="3"/>
       <c r="AGM60" s="3"/>
     </row>
-    <row r="61" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
         <v>77</v>
       </c>
@@ -29168,31 +29207,31 @@
         <v>30</v>
       </c>
       <c r="C61" s="33">
-        <v>20</v>
+        <v>86.4</v>
       </c>
       <c r="D61" s="33">
-        <v>0</v>
-      </c>
-      <c r="E61" s="33">
-        <v>0</v>
-      </c>
-      <c r="F61" s="17">
-        <v>0</v>
-      </c>
-      <c r="G61" s="17">
-        <v>0</v>
-      </c>
-      <c r="H61" s="17">
-        <v>0</v>
-      </c>
-      <c r="I61" s="21">
-        <v>0</v>
-      </c>
-      <c r="J61" s="21">
-        <v>0</v>
-      </c>
-      <c r="K61" s="21">
-        <v>0</v>
+        <v>86.4</v>
+      </c>
+      <c r="E61" s="39">
+        <v>133</v>
+      </c>
+      <c r="F61" s="33">
+        <v>86.4</v>
+      </c>
+      <c r="G61" s="33">
+        <v>86.4</v>
+      </c>
+      <c r="H61" s="39">
+        <v>133</v>
+      </c>
+      <c r="I61" s="33">
+        <v>86.4</v>
+      </c>
+      <c r="J61" s="33">
+        <v>86.4</v>
+      </c>
+      <c r="K61" s="39">
+        <v>133</v>
       </c>
       <c r="M61" s="39"/>
       <c r="T61" s="47"/>
@@ -30024,7 +30063,7 @@
       <c r="AGL61" s="3"/>
       <c r="AGM61" s="3"/>
     </row>
-    <row r="62" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>78</v>
       </c>
@@ -30032,31 +30071,31 @@
         <v>31</v>
       </c>
       <c r="C62" s="33">
-        <v>92.88</v>
+        <v>118.4</v>
       </c>
       <c r="D62" s="33">
-        <v>0</v>
-      </c>
-      <c r="E62" s="33">
-        <v>0</v>
-      </c>
-      <c r="F62" s="17">
-        <v>0</v>
-      </c>
-      <c r="G62" s="17">
-        <v>0</v>
-      </c>
-      <c r="H62" s="17">
-        <v>0</v>
-      </c>
-      <c r="I62" s="21">
-        <v>0</v>
-      </c>
-      <c r="J62" s="21">
-        <v>0</v>
-      </c>
-      <c r="K62" s="21">
-        <v>0</v>
+        <v>118.4</v>
+      </c>
+      <c r="E62" s="39">
+        <v>122</v>
+      </c>
+      <c r="F62" s="33">
+        <v>118.4</v>
+      </c>
+      <c r="G62" s="33">
+        <v>118.4</v>
+      </c>
+      <c r="H62" s="39">
+        <v>122</v>
+      </c>
+      <c r="I62" s="33">
+        <v>118.4</v>
+      </c>
+      <c r="J62" s="33">
+        <v>118.4</v>
+      </c>
+      <c r="K62" s="39">
+        <v>122</v>
       </c>
       <c r="O62" s="39"/>
       <c r="T62" s="47"/>
@@ -30888,7 +30927,7 @@
       <c r="AGL62" s="3"/>
       <c r="AGM62" s="3"/>
     </row>
-    <row r="63" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>79</v>
       </c>
@@ -30896,31 +30935,31 @@
         <v>32</v>
       </c>
       <c r="C63" s="33">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D63" s="33">
-        <v>0</v>
-      </c>
-      <c r="E63" s="33">
-        <v>0</v>
-      </c>
-      <c r="F63" s="17">
-        <v>0</v>
-      </c>
-      <c r="G63" s="17">
-        <v>0</v>
-      </c>
-      <c r="H63" s="17">
-        <v>0</v>
-      </c>
-      <c r="I63" s="21">
-        <v>0</v>
-      </c>
-      <c r="J63" s="21">
-        <v>0</v>
-      </c>
-      <c r="K63" s="21">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="E63" s="39">
+        <v>58</v>
+      </c>
+      <c r="F63" s="33">
+        <v>32</v>
+      </c>
+      <c r="G63" s="33">
+        <v>32</v>
+      </c>
+      <c r="H63" s="39">
+        <v>58</v>
+      </c>
+      <c r="I63" s="33">
+        <v>32</v>
+      </c>
+      <c r="J63" s="33">
+        <v>32</v>
+      </c>
+      <c r="K63" s="39">
+        <v>58</v>
       </c>
       <c r="L63" s="39"/>
       <c r="T63" s="47"/>
@@ -31752,7 +31791,7 @@
       <c r="AGL63" s="3"/>
       <c r="AGM63" s="3"/>
     </row>
-    <row r="64" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>80</v>
       </c>
@@ -31760,31 +31799,31 @@
         <v>33</v>
       </c>
       <c r="C64" s="33">
-        <v>20</v>
+        <v>86.4</v>
       </c>
       <c r="D64" s="33">
-        <v>92.88</v>
-      </c>
-      <c r="E64" s="33">
-        <v>92.88</v>
-      </c>
-      <c r="F64" s="17">
-        <v>92.88</v>
-      </c>
-      <c r="G64" s="17">
-        <v>92.88</v>
-      </c>
-      <c r="H64" s="17">
-        <v>92.88</v>
-      </c>
-      <c r="I64" s="21">
-        <v>92.88</v>
-      </c>
-      <c r="J64" s="21">
-        <v>92.88</v>
-      </c>
-      <c r="K64" s="21">
-        <v>92.88</v>
+        <v>86.4</v>
+      </c>
+      <c r="E64" s="39">
+        <v>191</v>
+      </c>
+      <c r="F64" s="33">
+        <v>86.4</v>
+      </c>
+      <c r="G64" s="33">
+        <v>86.4</v>
+      </c>
+      <c r="H64" s="39">
+        <v>191</v>
+      </c>
+      <c r="I64" s="33">
+        <v>86.4</v>
+      </c>
+      <c r="J64" s="33">
+        <v>86.4</v>
+      </c>
+      <c r="K64" s="39">
+        <v>191</v>
       </c>
       <c r="N64" s="39"/>
       <c r="T64" s="47"/>
@@ -32616,7 +32655,7 @@
       <c r="AGL64" s="3"/>
       <c r="AGM64" s="3"/>
     </row>
-    <row r="65" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>81</v>
       </c>
@@ -32624,31 +32663,31 @@
         <v>34</v>
       </c>
       <c r="C65" s="33">
-        <v>92.88</v>
+        <v>150.4</v>
       </c>
       <c r="D65" s="33">
-        <v>92.88</v>
-      </c>
-      <c r="E65" s="33">
-        <v>92.88</v>
-      </c>
-      <c r="F65" s="17">
-        <v>92.88</v>
-      </c>
-      <c r="G65" s="17">
-        <v>92.88</v>
-      </c>
-      <c r="H65" s="17">
-        <v>92.88</v>
-      </c>
-      <c r="I65" s="21">
-        <v>92.88</v>
-      </c>
-      <c r="J65" s="21">
-        <v>92.88</v>
-      </c>
-      <c r="K65" s="21">
-        <v>92.88</v>
+        <v>150.4</v>
+      </c>
+      <c r="E65" s="39">
+        <v>174</v>
+      </c>
+      <c r="F65" s="33">
+        <v>150.4</v>
+      </c>
+      <c r="G65" s="33">
+        <v>150.4</v>
+      </c>
+      <c r="H65" s="39">
+        <v>174</v>
+      </c>
+      <c r="I65" s="33">
+        <v>150.4</v>
+      </c>
+      <c r="J65" s="33">
+        <v>150.4</v>
+      </c>
+      <c r="K65" s="39">
+        <v>174</v>
       </c>
       <c r="P65" s="39"/>
       <c r="T65" s="47"/>
@@ -33480,7 +33519,7 @@
       <c r="AGL65" s="3"/>
       <c r="AGM65" s="3"/>
     </row>
-    <row r="66" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
@@ -33496,7 +33535,7 @@
       <c r="BB66" s="9"/>
       <c r="BC66" s="9"/>
     </row>
-    <row r="67" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -33512,9 +33551,9 @@
       <c r="BB67" s="9"/>
       <c r="BC67" s="9"/>
     </row>
-    <row r="68" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
@@ -33531,9 +33570,9 @@
       <c r="BB68" s="9"/>
       <c r="BC68" s="9"/>
     </row>
-    <row r="69" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>35</v>
@@ -34398,9 +34437,9 @@
       <c r="AGL69" s="3"/>
       <c r="AGM69" s="3"/>
     </row>
-    <row r="70" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>35</v>
@@ -35265,9 +35304,9 @@
       <c r="AGL70" s="3"/>
       <c r="AGM70" s="3"/>
     </row>
-    <row r="71" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>36</v>
@@ -36132,9 +36171,9 @@
       <c r="AGL71" s="3"/>
       <c r="AGM71" s="3"/>
     </row>
-    <row r="72" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>36</v>
@@ -36999,9 +37038,9 @@
       <c r="AGL72" s="3"/>
       <c r="AGM72" s="3"/>
     </row>
-    <row r="73" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>37</v>
@@ -37866,9 +37905,9 @@
       <c r="AGL73" s="3"/>
       <c r="AGM73" s="3"/>
     </row>
-    <row r="74" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>37</v>
@@ -38733,7 +38772,7 @@
       <c r="AGL74" s="3"/>
       <c r="AGM74" s="3"/>
     </row>
-    <row r="75" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
@@ -38762,7 +38801,7 @@
       <c r="BO75" s="9"/>
       <c r="BP75" s="9"/>
     </row>
-    <row r="76" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>38</v>
       </c>
@@ -38781,7 +38820,7 @@
       <c r="BB76" s="9"/>
       <c r="BC76" s="9"/>
     </row>
-    <row r="77" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>39</v>
       </c>
@@ -38800,7 +38839,7 @@
       <c r="BB77" s="9"/>
       <c r="BC77" s="9"/>
     </row>
-    <row r="78" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>82</v>
       </c>
@@ -39657,7 +39696,7 @@
       <c r="AGL78" s="3"/>
       <c r="AGM78" s="3"/>
     </row>
-    <row r="79" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -39673,7 +39712,7 @@
       <c r="BB79" s="9"/>
       <c r="BC79" s="9"/>
     </row>
-    <row r="80" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>40</v>
       </c>
@@ -39692,7 +39731,7 @@
       <c r="BB80" s="9"/>
       <c r="BC80" s="9"/>
     </row>
-    <row r="81" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>39</v>
       </c>
@@ -39711,37 +39750,37 @@
       <c r="BB81" s="9"/>
       <c r="BC81" s="9"/>
     </row>
-    <row r="82" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="33">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D82" s="33">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E82" s="33">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F82" s="17">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G82" s="17">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="H82" s="17">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I82" s="21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J82" s="21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K82" s="21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AV82" s="5"/>
       <c r="AW82" s="5"/>
@@ -40568,7 +40607,7 @@
       <c r="AGL82" s="3"/>
       <c r="AGM82" s="3"/>
     </row>
-    <row r="83" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
@@ -40584,7 +40623,7 @@
       <c r="BB83" s="9"/>
       <c r="BC83" s="9"/>
     </row>
-    <row r="84" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>41</v>
       </c>
@@ -40603,7 +40642,7 @@
       <c r="BB84" s="9"/>
       <c r="BC84" s="9"/>
     </row>
-    <row r="85" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
         <v>84</v>
       </c>
@@ -41462,7 +41501,7 @@
       <c r="AGL85" s="3"/>
       <c r="AGM85" s="3"/>
     </row>
-    <row r="86" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
@@ -41478,7 +41517,7 @@
       <c r="BB86" s="9"/>
       <c r="BC86" s="9"/>
     </row>
-    <row r="87" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>43</v>
       </c>
@@ -41497,7 +41536,7 @@
       <c r="BB87" s="9"/>
       <c r="BC87" s="9"/>
     </row>
-    <row r="88" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>44</v>
       </c>
@@ -41516,7 +41555,7 @@
       <c r="BB88" s="9"/>
       <c r="BC88" s="9"/>
     </row>
-    <row r="89" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>45</v>
       </c>
@@ -41535,7 +41574,7 @@
       <c r="BB89" s="9"/>
       <c r="BC89" s="9"/>
     </row>
-    <row r="90" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
         <v>85</v>
       </c>
@@ -42394,7 +42433,7 @@
       <c r="AGL90" s="3"/>
       <c r="AGM90" s="3"/>
     </row>
-    <row r="91" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
@@ -42410,7 +42449,7 @@
       <c r="BB91" s="9"/>
       <c r="BC91" s="9"/>
     </row>
-    <row r="92" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>47</v>
       </c>
@@ -42429,7 +42468,7 @@
       <c r="BB92" s="9"/>
       <c r="BC92" s="9"/>
     </row>
-    <row r="93" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>48</v>
       </c>
@@ -42448,7 +42487,7 @@
       <c r="BB93" s="9"/>
       <c r="BC93" s="9"/>
     </row>
-    <row r="94" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>49</v>
       </c>
@@ -42467,7 +42506,7 @@
       <c r="BB94" s="9"/>
       <c r="BC94" s="9"/>
     </row>
-    <row r="95" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
         <v>122</v>
       </c>
@@ -42491,13 +42530,13 @@
         <v>0</v>
       </c>
       <c r="I95" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J95" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K95" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AV95" s="5"/>
       <c r="AW95" s="5"/>
@@ -43324,7 +43363,7 @@
       <c r="AGL95" s="3"/>
       <c r="AGM95" s="3"/>
     </row>
-    <row r="96" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
         <v>86</v>
       </c>
@@ -44183,7 +44222,7 @@
       <c r="AGL96" s="3"/>
       <c r="AGM96" s="3"/>
     </row>
-    <row r="97" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>50</v>
       </c>
@@ -44202,7 +44241,7 @@
       <c r="BB97" s="9"/>
       <c r="BC97" s="9"/>
     </row>
-    <row r="98" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>48</v>
       </c>
@@ -44221,7 +44260,7 @@
       <c r="BB98" s="9"/>
       <c r="BC98" s="9"/>
     </row>
-    <row r="99" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>51</v>
       </c>
@@ -44240,7 +44279,7 @@
       <c r="BB99" s="9"/>
       <c r="BC99" s="9"/>
     </row>
-    <row r="100" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>52</v>
       </c>
@@ -44259,7 +44298,7 @@
       <c r="BB100" s="9"/>
       <c r="BC100" s="9"/>
     </row>
-    <row r="101" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
         <v>99</v>
       </c>
@@ -45120,7 +45159,7 @@
       <c r="AGL101" s="3"/>
       <c r="AGM101" s="3"/>
     </row>
-    <row r="102" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
         <v>100</v>
       </c>
@@ -45979,7 +46018,7 @@
       <c r="AGL102" s="3"/>
       <c r="AGM102" s="3"/>
     </row>
-    <row r="103" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
@@ -45995,7 +46034,7 @@
       <c r="BB103" s="9"/>
       <c r="BC103" s="9"/>
     </row>
-    <row r="104" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>54</v>
       </c>
@@ -46014,7 +46053,7 @@
       <c r="BB104" s="9"/>
       <c r="BC104" s="9"/>
     </row>
-    <row r="105" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>55</v>
       </c>
@@ -46033,7 +46072,7 @@
       <c r="BB105" s="9"/>
       <c r="BC105" s="9"/>
     </row>
-    <row r="106" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
         <v>87</v>
       </c>
@@ -46890,7 +46929,7 @@
       <c r="AGL106" s="3"/>
       <c r="AGM106" s="3"/>
     </row>
-    <row r="107" spans="1:871" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A107" s="16" t="s">
         <v>101</v>
       </c>
@@ -47747,7 +47786,7 @@
       <c r="AGL107" s="3"/>
       <c r="AGM107" s="3"/>
     </row>
-    <row r="108" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
@@ -47763,7 +47802,7 @@
       <c r="BB108" s="9"/>
       <c r="BC108" s="9"/>
     </row>
-    <row r="109" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
@@ -47771,7 +47810,7 @@
       <c r="J109" s="21"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F110" s="17"/>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
@@ -47779,7 +47818,7 @@
       <c r="J110" s="21"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
@@ -47787,7 +47826,7 @@
       <c r="J111" s="21"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:871" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
@@ -47795,7 +47834,7 @@
       <c r="J112" s="21"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
@@ -47803,7 +47842,7 @@
       <c r="J113" s="21"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
@@ -47811,7 +47850,7 @@
       <c r="J114" s="21"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F115" s="17"/>
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
@@ -47819,7 +47858,7 @@
       <c r="J115" s="21"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
@@ -47827,7 +47866,7 @@
       <c r="J116" s="21"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
@@ -47835,7 +47874,7 @@
       <c r="J117" s="21"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F118" s="17"/>
       <c r="G118" s="17"/>
       <c r="H118" s="17"/>
@@ -47843,7 +47882,7 @@
       <c r="J118" s="21"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F119" s="17"/>
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
@@ -47851,7 +47890,7 @@
       <c r="J119" s="21"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F120" s="17"/>
       <c r="G120" s="17"/>
       <c r="H120" s="17"/>
@@ -47859,7 +47898,7 @@
       <c r="J120" s="21"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
       <c r="H121" s="17"/>
@@ -47867,7 +47906,7 @@
       <c r="J121" s="21"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F122" s="17"/>
       <c r="G122" s="17"/>
       <c r="H122" s="17"/>
@@ -47875,7 +47914,7 @@
       <c r="J122" s="21"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
       <c r="H123" s="17"/>
@@ -47883,7 +47922,7 @@
       <c r="J123" s="21"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
       <c r="H124" s="17"/>
@@ -47891,7 +47930,7 @@
       <c r="J124" s="21"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
       <c r="H125" s="17"/>
@@ -47899,7 +47938,7 @@
       <c r="J125" s="21"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F126" s="17"/>
       <c r="G126" s="17"/>
       <c r="H126" s="17"/>
@@ -47907,7 +47946,7 @@
       <c r="J126" s="21"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F127" s="17"/>
       <c r="G127" s="17"/>
       <c r="H127" s="17"/>
@@ -47915,7 +47954,7 @@
       <c r="J127" s="21"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F128" s="17"/>
       <c r="G128" s="17"/>
       <c r="H128" s="17"/>
@@ -47923,7 +47962,7 @@
       <c r="J128" s="21"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F129" s="17"/>
       <c r="G129" s="17"/>
       <c r="H129" s="17"/>
@@ -47947,39 +47986,39 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>95</v>
       </c>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters POULTRY.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters POULTRY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3535CF4-95B2-6143-987B-CE55F4FF7F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13E83B4-5304-5545-8147-32EAB1B87822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="1160" windowWidth="28800" windowHeight="16180" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="163">
   <si>
     <t># Initial population</t>
   </si>
@@ -554,9 +554,6 @@
   </si>
   <si>
     <t>rpert(10000, 0.13, 0.22, 0.175)</t>
-  </si>
-  <si>
-    <t>0.574/2</t>
   </si>
   <si>
     <t>rpert(10000, 0.12/4, 0.25/4, 0.185/4)</t>
@@ -1239,10 +1236,10 @@
   <dimension ref="A1:XFD129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7100,7 +7097,7 @@
         <v>134</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>134</v>
@@ -7109,7 +7106,7 @@
         <v>134</v>
       </c>
       <c r="H20" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>135</v>
@@ -7118,7 +7115,7 @@
         <v>135</v>
       </c>
       <c r="K20" s="71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O20" s="39"/>
       <c r="T20" s="47"/>
@@ -8813,7 +8810,7 @@
     </row>
     <row r="22" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" s="63">
         <v>0.23</v>
@@ -16803,8 +16800,9 @@
       <c r="E37" s="65">
         <v>0</v>
       </c>
-      <c r="F37" s="55" t="s">
-        <v>150</v>
+      <c r="F37" s="55">
+        <f>0.574/2</f>
+        <v>0.28699999999999998</v>
       </c>
       <c r="G37" s="66">
         <v>0</v>
@@ -16812,8 +16810,9 @@
       <c r="H37" s="66">
         <v>0</v>
       </c>
-      <c r="I37" s="58" t="s">
-        <v>150</v>
+      <c r="I37" s="58">
+        <f>0.574/2</f>
+        <v>0.28699999999999998</v>
       </c>
       <c r="J37" s="67">
         <v>0</v>
@@ -17691,7 +17690,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" s="65">
         <v>0</v>
@@ -17700,7 +17699,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G38" s="66">
         <v>0</v>
@@ -17709,7 +17708,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J38" s="67">
         <v>0</v>
@@ -22248,7 +22247,7 @@
         <v>127</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>127</v>
@@ -23107,7 +23106,7 @@
         <v>127</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>127</v>
@@ -23960,13 +23959,13 @@
         <v>22</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>129</v>
@@ -24819,13 +24818,13 @@
         <v>23</v>
       </c>
       <c r="C51" s="64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>130</v>
@@ -25684,7 +25683,7 @@
         <v>128</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>131</v>
@@ -26537,13 +26536,13 @@
         <v>24</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>132</v>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters POULTRY.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters POULTRY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13E83B4-5304-5545-8147-32EAB1B87822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399699BB-D54E-794F-A4A6-008DC3BE28DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="1160" windowWidth="28800" windowHeight="16180" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="162">
   <si>
     <t># Initial population</t>
   </si>
@@ -551,9 +551,6 @@
   </si>
   <si>
     <t>rpert(10000, 0.15, 0.22, 0.185)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 0.13, 0.22, 0.175)</t>
   </si>
   <si>
     <t>rpert(10000, 0.12/4, 0.25/4, 0.185/4)</t>
@@ -1236,10 +1233,10 @@
   <dimension ref="A1:XFD129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7097,7 +7094,7 @@
         <v>134</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>134</v>
@@ -7106,7 +7103,7 @@
         <v>134</v>
       </c>
       <c r="H20" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>135</v>
@@ -7115,7 +7112,7 @@
         <v>135</v>
       </c>
       <c r="K20" s="71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O20" s="39"/>
       <c r="T20" s="47"/>
@@ -8810,7 +8807,7 @@
     </row>
     <row r="22" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="63">
         <v>0.23</v>
@@ -17690,7 +17687,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" s="65">
         <v>0</v>
@@ -17699,7 +17696,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G38" s="66">
         <v>0</v>
@@ -17708,7 +17705,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J38" s="67">
         <v>0</v>
@@ -18593,8 +18590,8 @@
       <c r="E39" s="65">
         <v>0</v>
       </c>
-      <c r="F39" s="55" t="s">
-        <v>149</v>
+      <c r="F39" s="55">
+        <v>0.17499999999999999</v>
       </c>
       <c r="G39" s="66">
         <v>0</v>
@@ -18602,8 +18599,8 @@
       <c r="H39" s="66">
         <v>0</v>
       </c>
-      <c r="I39" s="58" t="s">
-        <v>149</v>
+      <c r="I39" s="58">
+        <v>0.17499999999999999</v>
       </c>
       <c r="J39" s="67">
         <v>0</v>
@@ -22247,7 +22244,7 @@
         <v>127</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>127</v>
@@ -23106,7 +23103,7 @@
         <v>127</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>127</v>
@@ -23959,13 +23956,13 @@
         <v>22</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>129</v>
@@ -24818,13 +24815,13 @@
         <v>23</v>
       </c>
       <c r="C51" s="64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>130</v>
@@ -25683,7 +25680,7 @@
         <v>128</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>131</v>
@@ -26536,13 +26533,13 @@
         <v>24</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>132</v>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters POULTRY.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters POULTRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F61D9A-2728-3141-9BF4-EEF47B1B6E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9664C97E-B51A-A047-B85F-35A52716102C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="1160" windowWidth="28800" windowHeight="14880" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="0" yWindow="1160" windowWidth="28800" windowHeight="14880" activeTab="1" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="197">
   <si>
     <t># Initial population</t>
   </si>
@@ -678,13 +678,31 @@
   <si>
     <t xml:space="preserve"> mort zero</t>
   </si>
+  <si>
+    <t>vill ind current</t>
+  </si>
+  <si>
+    <t>vil ind juv mort zero</t>
+  </si>
+  <si>
+    <t>vil ind juv ideal</t>
+  </si>
+  <si>
+    <t>AHLE</t>
+  </si>
+  <si>
+    <t>Juv</t>
+  </si>
+  <si>
+    <t>prod AHLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -855,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -899,7 +917,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -924,7 +942,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -934,27 +952,28 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,11 +1290,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:XCJ213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="20" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="89" zoomScaleNormal="20" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1286,6 +1305,7 @@
     <col min="4" max="5" width="39.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="39.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="41.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="35" customWidth="1"/>
     <col min="17" max="17" width="26" customWidth="1"/>
   </cols>
@@ -1540,6 +1560,12 @@
     <row r="6" spans="1:799" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>118</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="U6" s="42">
+        <f>SUM(U7:U12)</f>
+        <v>3129285.4407155002</v>
       </c>
     </row>
     <row r="7" spans="1:799" x14ac:dyDescent="0.2">
@@ -48127,16 +48153,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D08064-68C3-4BB0-A64D-3A606C4D4B6B}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="138" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="138" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.83203125" customWidth="1"/>
@@ -48309,6 +48336,69 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="54">
+        <v>9154907178.8783302</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="54">
+        <v>10954558648.7402</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="54">
+        <v>12965788832.187099</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" t="s">
+        <v>194</v>
+      </c>
+      <c r="H33">
+        <f>F32-F30</f>
+        <v>3810881653.3087692</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34">
+        <f>F31-F30</f>
+        <v>1799651469.8618698</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35">
+        <f>H33-H34</f>
+        <v>2011230183.4468994</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F38" s="54"/>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F39" s="54"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
